--- a/PCB/PCB_project_v4/BOM_TOF_rangefinder_v4b.xlsx
+++ b/PCB/PCB_project_v4/BOM_TOF_rangefinder_v4b.xlsx
@@ -373,9 +373,6 @@
     <t>RESC1608X55N</t>
   </si>
   <si>
-    <t>R2, R7</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>R20, R27, R30, R36, R38</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -533,13 +527,19 @@
   </si>
   <si>
     <t>SMD05032C4 can be used</t>
+  </si>
+  <si>
+    <t>R27, R30, R36, R38</t>
+  </si>
+  <si>
+    <t>R2, R7, R20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +550,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -603,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,6 +641,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -936,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,14 +1247,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1627,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>165</v>
+      <c r="G30" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1650,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>165</v>
+      <c r="G31" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1696,13 +1705,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>34</v>
@@ -1775,10 +1784,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
@@ -1790,7 +1799,7 @@
         <v>118</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>34</v>
@@ -1798,10 +1807,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
@@ -1813,7 +1822,7 @@
         <v>118</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>34</v>
@@ -1821,10 +1830,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
@@ -1836,7 +1845,7 @@
         <v>118</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>34</v>
@@ -1844,10 +1853,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -1859,7 +1868,7 @@
         <v>118</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>34</v>
@@ -1867,10 +1876,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1879,10 +1888,10 @@
         <v>117</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>34</v>
@@ -1890,10 +1899,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1905,7 +1914,7 @@
         <v>118</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>34</v>
@@ -1913,10 +1922,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
@@ -1928,7 +1937,7 @@
         <v>118</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>34</v>
@@ -1936,10 +1945,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1951,7 +1960,7 @@
         <v>118</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>34</v>
@@ -1959,10 +1968,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1971,10 +1980,10 @@
         <v>117</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>34</v>
@@ -1982,10 +1991,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -1997,7 +2006,7 @@
         <v>118</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>34</v>
@@ -2005,10 +2014,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -2017,10 +2026,10 @@
         <v>117</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -2028,10 +2037,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
@@ -2043,7 +2052,7 @@
         <v>118</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -2051,10 +2060,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -2066,7 +2075,7 @@
         <v>118</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -2074,10 +2083,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -2089,7 +2098,7 @@
         <v>118</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -2097,10 +2106,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -2112,7 +2121,7 @@
         <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -2120,10 +2129,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -2135,7 +2144,7 @@
         <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>34</v>
@@ -2143,10 +2152,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -2158,7 +2167,7 @@
         <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -2166,22 +2175,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -2189,25 +2198,25 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/PCB_project_v4/BOM_TOF_rangefinder_v4b.xlsx
+++ b/PCB/PCB_project_v4/BOM_TOF_rangefinder_v4b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="174">
   <si>
     <t>Designator</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>R2, R7, R20</t>
+  </si>
+  <si>
+    <t>Sensitive to ESD!</t>
   </si>
 </sst>
 </file>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1437,8 +1440,8 @@
       <c r="F21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>34</v>
+      <c r="G21" s="15" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
